--- a/data/trans_dic/P23_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3963723946683951</v>
+        <v>0.3940910428281059</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3337072341025066</v>
+        <v>0.3347702793179215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3338611676095604</v>
+        <v>0.3340109672870744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2457793472095444</v>
+        <v>0.2445299534580368</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2009383127239242</v>
+        <v>0.2036264616613105</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1986988365901563</v>
+        <v>0.2015248198118322</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2177500585186067</v>
+        <v>0.2198333742677101</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1545408174628461</v>
+        <v>0.1561539644858853</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3075499183195341</v>
+        <v>0.3091700619138086</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2761724526694418</v>
+        <v>0.2746443537025139</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2881149179878671</v>
+        <v>0.2871035863442687</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2055596425878323</v>
+        <v>0.2060339665429268</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4717799376156926</v>
+        <v>0.4734598172620459</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4085960628189519</v>
+        <v>0.4087892012417326</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4114474555116718</v>
+        <v>0.4085643038966584</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3187235380284512</v>
+        <v>0.3192272996591443</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2628390314140873</v>
+        <v>0.2660143253579201</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2649342619288223</v>
+        <v>0.2670745347957225</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2868677096581573</v>
+        <v>0.2871059157912224</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2052129269597058</v>
+        <v>0.2078407697722825</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3575166544960234</v>
+        <v>0.3598959969785844</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.326962747310901</v>
+        <v>0.3251963532937812</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3368518341123359</v>
+        <v>0.3363225304209573</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2488018347836723</v>
+        <v>0.2513819456681215</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3674846427504092</v>
+        <v>0.3689477006949963</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3438039084929604</v>
+        <v>0.3446025605446478</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2985227076189479</v>
+        <v>0.2976538716652484</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2132020343073754</v>
+        <v>0.2116498777028213</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2021025586749177</v>
+        <v>0.2033921884512981</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2517270868220585</v>
+        <v>0.2493197546210649</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2324596907240454</v>
+        <v>0.23276725233721</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1650800115502632</v>
+        <v>0.1620259233130529</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2940538688721309</v>
+        <v>0.2924436908646412</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3057681255233167</v>
+        <v>0.3063956754906625</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2735217596021586</v>
+        <v>0.2716384058951963</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1960244862147283</v>
+        <v>0.1941624932273185</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4343213482888403</v>
+        <v>0.4366375520708863</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4066317169809981</v>
+        <v>0.4046205200231108</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3584036007419799</v>
+        <v>0.3592089198489611</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2727636746318916</v>
+        <v>0.2751209815650689</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2565270477874852</v>
+        <v>0.2603723082492233</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3084033745260734</v>
+        <v>0.3079083189002896</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2883962436804103</v>
+        <v>0.2879729815847988</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2066499472826346</v>
+        <v>0.2075224751136088</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3388555588150444</v>
+        <v>0.3365064230127802</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3504192574968807</v>
+        <v>0.3501013673376061</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3154505207459227</v>
+        <v>0.3127453146415384</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2329742969596424</v>
+        <v>0.2322152047476772</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3219239223541186</v>
+        <v>0.3212687706790016</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3349893285912589</v>
+        <v>0.3354741445460939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3710322055630618</v>
+        <v>0.3736009048118401</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2289362076932956</v>
+        <v>0.2341233869228812</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2063847020566092</v>
+        <v>0.2071356851866284</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2504414427252573</v>
+        <v>0.2517065284802977</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2562588977824102</v>
+        <v>0.2563168393973038</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1873617561465688</v>
+        <v>0.1885412771693547</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2752437189752601</v>
+        <v>0.2744891763458449</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3023373776862138</v>
+        <v>0.3027449714171112</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3200284333769179</v>
+        <v>0.322232402950316</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2168538423980503</v>
+        <v>0.2168769677735468</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3979115899889163</v>
+        <v>0.3997276881636425</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4081020097664471</v>
+        <v>0.4083750289314124</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4435159023515199</v>
+        <v>0.4452239952036673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3057428512669647</v>
+        <v>0.3072724949924867</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2718630355397096</v>
+        <v>0.2711693207262834</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3208172517946803</v>
+        <v>0.3185054584002327</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3197614624964526</v>
+        <v>0.3178779248988568</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.242793001712303</v>
+        <v>0.2428822558853596</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3229696049082492</v>
+        <v>0.3250055967688705</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3534428463823234</v>
+        <v>0.3512529092096491</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3714614381287391</v>
+        <v>0.3740795049785521</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2639981191488283</v>
+        <v>0.2647133801087358</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.24689271458939</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1861440645094473</v>
+        <v>0.1861440645094474</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3327119162134614</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.369331859517828</v>
+        <v>0.36478900516034</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3287846134599628</v>
+        <v>0.3258724760746196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2713095092360451</v>
+        <v>0.2718674500941272</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2140303787052835</v>
+        <v>0.2145251992062417</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2486250411229379</v>
+        <v>0.2500888560692423</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.246915701008002</v>
+        <v>0.2468719832570074</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2188697697761981</v>
+        <v>0.2221102519082762</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1659969660105539</v>
+        <v>0.1662943981656577</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3118272663974823</v>
+        <v>0.3087243179442677</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2942190209808705</v>
+        <v>0.2945672051588258</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2498258273541775</v>
+        <v>0.2509157240964967</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1972299573443135</v>
+        <v>0.1954680097473459</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4308415027604259</v>
+        <v>0.4284394726202673</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3935993963367342</v>
+        <v>0.3876318790573368</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3296711581628481</v>
+        <v>0.3321860138985115</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2703053102964267</v>
+        <v>0.2696340247043757</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3038713241849813</v>
+        <v>0.3036861924759435</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3037693996528032</v>
+        <v>0.3038093134665193</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2767488012029409</v>
+        <v>0.277146288713232</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2064103067570357</v>
+        <v>0.206381657567166</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3550729065886209</v>
+        <v>0.3509248309174164</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3362012842719133</v>
+        <v>0.3362320122198796</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2915521852703119</v>
+        <v>0.2933176788737412</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2314533558555638</v>
+        <v>0.2316786942221715</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.380969642021169</v>
+        <v>0.3824223081344389</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3517604048391249</v>
+        <v>0.3523748024990001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2306090796420667</v>
+        <v>0.2303695009626821</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2545320334610676</v>
+        <v>0.2537503818183868</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3098232429060634</v>
+        <v>0.3106293652586773</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3067147429424985</v>
+        <v>0.3070758325793712</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4170760450911604</v>
+        <v>0.4152264714443021</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3865999470064571</v>
+        <v>0.3860519241670833</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2609835619689522</v>
+        <v>0.2613209926347024</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2865613260194423</v>
+        <v>0.2845751344166443</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3341027434465323</v>
+        <v>0.3324219212670809</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3307246937603189</v>
+        <v>0.3303537794642027</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>275087</v>
+        <v>273504</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>234753</v>
+        <v>235501</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>225290</v>
+        <v>225391</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>169496</v>
+        <v>168635</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>138316</v>
+        <v>140166</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>138503</v>
+        <v>140473</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>146269</v>
+        <v>147669</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>113296</v>
+        <v>114479</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>425146</v>
+        <v>427385</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>386785</v>
+        <v>384645</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>387955</v>
+        <v>386594</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>292458</v>
+        <v>293133</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>327421</v>
+        <v>328587</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>287435</v>
+        <v>287571</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>277645</v>
+        <v>275699</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>219801</v>
+        <v>220148</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>180926</v>
+        <v>183111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>184672</v>
+        <v>186164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>192698</v>
+        <v>192858</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>150444</v>
+        <v>152371</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>494218</v>
+        <v>497507</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>457918</v>
+        <v>455444</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>453581</v>
+        <v>452868</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>353981</v>
+        <v>357651</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>353064</v>
+        <v>354469</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>349620</v>
+        <v>350433</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>304899</v>
+        <v>304011</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>223388</v>
+        <v>221762</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>195715</v>
+        <v>196964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>259829</v>
+        <v>257344</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>242220</v>
+        <v>242540</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>176774</v>
+        <v>173504</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>567274</v>
+        <v>564168</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>626550</v>
+        <v>627836</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>564369</v>
+        <v>560483</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>415300</v>
+        <v>411355</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>417278</v>
+        <v>419503</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>413511</v>
+        <v>411466</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>366059</v>
+        <v>366881</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>285795</v>
+        <v>288265</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>248419</v>
+        <v>252143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>318329</v>
+        <v>317818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>300505</v>
+        <v>300064</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>221289</v>
+        <v>222223</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>653704</v>
+        <v>649172</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>718045</v>
+        <v>717393</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>650883</v>
+        <v>645301</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>493583</v>
+        <v>491974</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>218428</v>
+        <v>217984</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>253796</v>
+        <v>254163</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>281498</v>
+        <v>283447</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>183583</v>
+        <v>187742</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>141134</v>
+        <v>141648</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>194387</v>
+        <v>195369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>200624</v>
+        <v>200669</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>152186</v>
+        <v>153144</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>374978</v>
+        <v>373950</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>463725</v>
+        <v>464351</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>493350</v>
+        <v>496748</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>350035</v>
+        <v>350073</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>269987</v>
+        <v>271219</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>309187</v>
+        <v>309394</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>336490</v>
+        <v>337786</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>245174</v>
+        <v>246400</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>185911</v>
+        <v>185437</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>249011</v>
+        <v>247217</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>250340</v>
+        <v>248865</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>197211</v>
+        <v>197283</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>439998</v>
+        <v>442771</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>542111</v>
+        <v>538752</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>572638</v>
+        <v>576674</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>426134</v>
+        <v>427288</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>347993</v>
+        <v>343712</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>311602</v>
+        <v>308842</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>254371</v>
+        <v>254894</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>211903</v>
+        <v>212393</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>258225</v>
+        <v>259745</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>259487</v>
+        <v>259441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>228170</v>
+        <v>231549</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>185115</v>
+        <v>185447</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>617678</v>
+        <v>611532</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>588042</v>
+        <v>588738</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>494670</v>
+        <v>496828</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>415215</v>
+        <v>411506</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>405948</v>
+        <v>403685</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>373029</v>
+        <v>367374</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>309089</v>
+        <v>311447</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>267619</v>
+        <v>266954</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>315604</v>
+        <v>315412</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>319236</v>
+        <v>319278</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>288509</v>
+        <v>288923</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>230183</v>
+        <v>230151</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>703340</v>
+        <v>695124</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>671950</v>
+        <v>672011</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>577291</v>
+        <v>580787</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>487263</v>
+        <v>487737</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1247866</v>
+        <v>1252625</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1205043</v>
+        <v>1207148</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>779274</v>
+        <v>778464</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>905199</v>
+        <v>902419</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2061780</v>
+        <v>2067145</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2141506</v>
+        <v>2144027</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1366133</v>
+        <v>1360075</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1324394</v>
+        <v>1322517</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>881915</v>
+        <v>883055</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1019106</v>
+        <v>1012042</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2223353</v>
+        <v>2212167</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2309145</v>
+        <v>2306555</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
     </row>
     <row r="24">
